--- a/Data User.xlsx
+++ b/Data User.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SI_Cyber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D3E94B-032B-4D04-BB7D-C2CA34D66961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BCC37B-D905-41F6-BBFA-E4D969C8DCF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FC2D7973-EAF4-46C7-AEBF-CF2AF1EEE89E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="667">
   <si>
     <t>password</t>
   </si>
@@ -48,9 +48,6 @@
     <t>CCUSER9301</t>
   </si>
   <si>
-    <t>CCPASS9992</t>
-  </si>
-  <si>
     <t>Agus setiono</t>
   </si>
   <si>
@@ -63,81 +60,54 @@
     <t>CCUSER9136</t>
   </si>
   <si>
-    <t>CCPASS9524</t>
-  </si>
-  <si>
     <t>Ahmad afandi</t>
   </si>
   <si>
     <t>CCUSER8565</t>
   </si>
   <si>
-    <t>CCPASS3145</t>
-  </si>
-  <si>
     <t>Ari zulkarnaen</t>
   </si>
   <si>
     <t>CCUSER5962</t>
   </si>
   <si>
-    <t>CCPASS4526</t>
-  </si>
-  <si>
     <t>Djunaedi fahmi</t>
   </si>
   <si>
     <t>CCUSER8148</t>
   </si>
   <si>
-    <t>CCPASS4843</t>
-  </si>
-  <si>
     <t>Fajarudin</t>
   </si>
   <si>
     <t>CCUSER4826</t>
   </si>
   <si>
-    <t>CCPASS2237</t>
-  </si>
-  <si>
     <t>Hendi gunawan</t>
   </si>
   <si>
     <t>CCUSER5050</t>
   </si>
   <si>
-    <t>CCPASS4743</t>
-  </si>
-  <si>
     <t>Iky tri prasetya</t>
   </si>
   <si>
     <t>CCUSER5304</t>
   </si>
   <si>
-    <t>CCPASS3215</t>
-  </si>
-  <si>
     <t>Indra idiatma</t>
   </si>
   <si>
     <t>CCUSER7292</t>
   </si>
   <si>
-    <t>CCPASS4218</t>
-  </si>
-  <si>
     <t>Khoirul handi Nugroho</t>
   </si>
   <si>
     <t>CCUSER2074</t>
   </si>
   <si>
-    <t>CCPASS6202</t>
-  </si>
-  <si>
     <t>Melly nawati</t>
   </si>
   <si>
@@ -147,27 +117,18 @@
     <t>CCUSER9991</t>
   </si>
   <si>
-    <t>CCPASS7835</t>
-  </si>
-  <si>
     <t>Sabilal muhtadin</t>
   </si>
   <si>
     <t>CCUSER6831</t>
   </si>
   <si>
-    <t>CCPASS1254</t>
-  </si>
-  <si>
     <t>Wanti kurniasih</t>
   </si>
   <si>
     <t>CCUSER4810</t>
   </si>
   <si>
-    <t>CCPASS6344</t>
-  </si>
-  <si>
     <t>Riska aulia</t>
   </si>
   <si>
@@ -177,90 +138,60 @@
     <t>CCUSER9988</t>
   </si>
   <si>
-    <t>CCPASS8621</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ermi melita </t>
   </si>
   <si>
     <t>CCUSER4462</t>
   </si>
   <si>
-    <t>CCPASS6533</t>
-  </si>
-  <si>
     <t>Devi nurmalasari</t>
   </si>
   <si>
     <t>CCUSER7467</t>
   </si>
   <si>
-    <t>CCPASS8927</t>
-  </si>
-  <si>
     <t>Dani rukanda</t>
   </si>
   <si>
     <t>CCUSER6576</t>
   </si>
   <si>
-    <t>CCPASS9577</t>
-  </si>
-  <si>
     <t>Kiki septiani</t>
   </si>
   <si>
     <t>CCUSER8066</t>
   </si>
   <si>
-    <t>CCPASS2699</t>
-  </si>
-  <si>
     <t>M. Fajar</t>
   </si>
   <si>
     <t>CCUSER5759</t>
   </si>
   <si>
-    <t>CCPASS6913</t>
-  </si>
-  <si>
     <t>Andi prasetyo</t>
   </si>
   <si>
     <t>CCUSER3963</t>
   </si>
   <si>
-    <t>CCPASS4195</t>
-  </si>
-  <si>
     <t>M. Anwar</t>
   </si>
   <si>
     <t>CCUSER9037</t>
   </si>
   <si>
-    <t>CCPASS3174</t>
-  </si>
-  <si>
     <t>Asep kurniawan</t>
   </si>
   <si>
     <t>CCUSER5481</t>
   </si>
   <si>
-    <t>CCPASS7795</t>
-  </si>
-  <si>
     <t>Muhammad yusuf</t>
   </si>
   <si>
     <t>CCUSER4168</t>
   </si>
   <si>
-    <t>CCPASS2391</t>
-  </si>
-  <si>
     <t>Ahmad bunawi</t>
   </si>
   <si>
@@ -279,108 +210,72 @@
     <t>CCUSER8546</t>
   </si>
   <si>
-    <t>CCPASS3280</t>
-  </si>
-  <si>
     <t>Anggi apriliani</t>
   </si>
   <si>
     <t>CCUSER3521</t>
   </si>
   <si>
-    <t>CCPASS5662</t>
-  </si>
-  <si>
     <t>Annisa</t>
   </si>
   <si>
     <t>CCUSER2412</t>
   </si>
   <si>
-    <t>CCPASS8786</t>
-  </si>
-  <si>
     <t>Arif fikri septiawan</t>
   </si>
   <si>
     <t>CCUSER9953</t>
   </si>
   <si>
-    <t>CCPASS5727</t>
-  </si>
-  <si>
     <t>Beni hartanto</t>
   </si>
   <si>
     <t>CCUSER4842</t>
   </si>
   <si>
-    <t>CCPASS4850</t>
-  </si>
-  <si>
     <t>Eny Nur'aeny Ningtyas</t>
   </si>
   <si>
     <t>CCUSER8390</t>
   </si>
   <si>
-    <t>CCPASS5246</t>
-  </si>
-  <si>
     <t>Fajar Suryadi DS</t>
   </si>
   <si>
     <t>CCUSER1955</t>
   </si>
   <si>
-    <t>CCPASS4898</t>
-  </si>
-  <si>
     <t>Ibrahim</t>
   </si>
   <si>
     <t>CCUSER5172</t>
   </si>
   <si>
-    <t>CCPASS1014</t>
-  </si>
-  <si>
     <t>Lili Nurjanah</t>
   </si>
   <si>
     <t>CCUSER6337</t>
   </si>
   <si>
-    <t>CCPASS6068</t>
-  </si>
-  <si>
     <t>Rahmawati</t>
   </si>
   <si>
     <t>CCUSER9528</t>
   </si>
   <si>
-    <t>CCPASS7939</t>
-  </si>
-  <si>
     <t>Sandy Widayanto</t>
   </si>
   <si>
     <t>CCUSER8631</t>
   </si>
   <si>
-    <t>CCPASS7114</t>
-  </si>
-  <si>
     <t>Tri Setiawan N</t>
   </si>
   <si>
     <t>CCUSER9832</t>
   </si>
   <si>
-    <t>CCPASS6510</t>
-  </si>
-  <si>
     <t>Achmad Abitia</t>
   </si>
   <si>
@@ -390,162 +285,108 @@
     <t>CCUSER2195</t>
   </si>
   <si>
-    <t>CCPASS5462</t>
-  </si>
-  <si>
     <t>Agustini Setyo</t>
   </si>
   <si>
     <t>CCUSER3816</t>
   </si>
   <si>
-    <t>CCPASS5552</t>
-  </si>
-  <si>
     <t>Andreo Charles</t>
   </si>
   <si>
     <t>CCUSER7521</t>
   </si>
   <si>
-    <t>CCPASS3753</t>
-  </si>
-  <si>
     <t>Ari Dwi Prasetyo</t>
   </si>
   <si>
     <t>CCUSER1832</t>
   </si>
   <si>
-    <t>CCPASS5841</t>
-  </si>
-  <si>
     <t>Budi Santoso</t>
   </si>
   <si>
     <t>CCUSER9047</t>
   </si>
   <si>
-    <t>CCPASS6199</t>
-  </si>
-  <si>
     <t>Dewi Suryani</t>
   </si>
   <si>
     <t>CCUSER9078</t>
   </si>
   <si>
-    <t>CCPASS7562</t>
-  </si>
-  <si>
     <t>Dino Dwi Armanda</t>
   </si>
   <si>
     <t>CCUSER7780</t>
   </si>
   <si>
-    <t>CCPASS4047</t>
-  </si>
-  <si>
     <t>Fajar Bagus Nugraha</t>
   </si>
   <si>
     <t>CCUSER3906</t>
   </si>
   <si>
-    <t>CCPASS6727</t>
-  </si>
-  <si>
     <t>Hanafi Budiman</t>
   </si>
   <si>
     <t>CCUSER9980</t>
   </si>
   <si>
-    <t>CCPASS6155</t>
-  </si>
-  <si>
     <t>Haryanto</t>
   </si>
   <si>
     <t>CCUSER8996</t>
   </si>
   <si>
-    <t>CCPASS9273</t>
-  </si>
-  <si>
     <t>Heri Mai Trisna</t>
   </si>
   <si>
     <t>CCUSER3512</t>
   </si>
   <si>
-    <t>CCPASS3582</t>
-  </si>
-  <si>
     <t>Kurniawan Dinata</t>
   </si>
   <si>
     <t>CCUSER1073</t>
   </si>
   <si>
-    <t>CCPASS2901</t>
-  </si>
-  <si>
     <t>Nurhambali</t>
   </si>
   <si>
     <t>CCUSER5791</t>
   </si>
   <si>
-    <t>CCPASS8490</t>
-  </si>
-  <si>
     <t>Octaviani Dwi N</t>
   </si>
   <si>
     <t>CCUSER2584</t>
   </si>
   <si>
-    <t>CCPASS7107</t>
-  </si>
-  <si>
     <t>Rahmat As Rosa</t>
   </si>
   <si>
     <t>CCUSER6780</t>
   </si>
   <si>
-    <t>CCPASS5661</t>
-  </si>
-  <si>
     <t>Riseki Zaenudin</t>
   </si>
   <si>
     <t>CCUSER9223</t>
   </si>
   <si>
-    <t>CCPASS1306</t>
-  </si>
-  <si>
     <t>Suci Pramudita</t>
   </si>
   <si>
     <t>CCUSER3534</t>
   </si>
   <si>
-    <t>CCPASS4778</t>
-  </si>
-  <si>
     <t>Wina Syahputri</t>
   </si>
   <si>
     <t>CCUSER5782</t>
   </si>
   <si>
-    <t>CCPASS8608</t>
-  </si>
-  <si>
     <t>Syalsa Utama</t>
   </si>
   <si>
@@ -555,126 +396,84 @@
     <t>CCUSER5010</t>
   </si>
   <si>
-    <t>CCPASS7517</t>
-  </si>
-  <si>
     <t>Agung Septiawan</t>
   </si>
   <si>
     <t>CCUSER8867</t>
   </si>
   <si>
-    <t>CCPASS5539</t>
-  </si>
-  <si>
     <t>Achmad Hilman</t>
   </si>
   <si>
     <t>CCUSER7198</t>
   </si>
   <si>
-    <t>CCPASS8590</t>
-  </si>
-  <si>
     <t>Nursiti Robiah AS</t>
   </si>
   <si>
     <t>CCUSER4475</t>
   </si>
   <si>
-    <t>CCPASS1909</t>
-  </si>
-  <si>
     <t>Era Putri Arryani</t>
   </si>
   <si>
     <t>CCUSER3158</t>
   </si>
   <si>
-    <t>CCPASS6015</t>
-  </si>
-  <si>
     <t>Asep Maulana</t>
   </si>
   <si>
     <t>CCUSER1817</t>
   </si>
   <si>
-    <t>CCPASS8304</t>
-  </si>
-  <si>
     <t>Al Hadi</t>
   </si>
   <si>
     <t>CCUSER6726</t>
   </si>
   <si>
-    <t>CCPASS1674</t>
-  </si>
-  <si>
     <t>Permata Arapah</t>
   </si>
   <si>
     <t>CCUSER3624</t>
   </si>
   <si>
-    <t>CCPASS1189</t>
-  </si>
-  <si>
     <t>Septya Maelani</t>
   </si>
   <si>
     <t>CCUSER6022</t>
   </si>
   <si>
-    <t>CCPASS5247</t>
-  </si>
-  <si>
     <t>Maulana Rifaldi</t>
   </si>
   <si>
     <t>CCUSER1599</t>
   </si>
   <si>
-    <t>CCPASS4561</t>
-  </si>
-  <si>
     <t>Nourma Yulia Amin</t>
   </si>
   <si>
     <t>CCUSER2707</t>
   </si>
   <si>
-    <t>CCPASS1257</t>
-  </si>
-  <si>
     <t>Okke Arista Febri</t>
   </si>
   <si>
     <t>CCUSER6557</t>
   </si>
   <si>
-    <t>CCPASS2481</t>
-  </si>
-  <si>
     <t>Dwi Suyatmi</t>
   </si>
   <si>
     <t>CCUSER7698</t>
   </si>
   <si>
-    <t>CCPASS7123</t>
-  </si>
-  <si>
     <t>Nurhasanah</t>
   </si>
   <si>
     <t>CCUSER3435</t>
   </si>
   <si>
-    <t>CCPASS7353</t>
-  </si>
-  <si>
     <t>Nanda Supriadi</t>
   </si>
   <si>
@@ -690,81 +489,54 @@
     <t>CCUSER7699</t>
   </si>
   <si>
-    <t>CCPASS5054</t>
-  </si>
-  <si>
     <t>Hermas</t>
   </si>
   <si>
     <t>CCUSER5043</t>
   </si>
   <si>
-    <t>CCPASS8919</t>
-  </si>
-  <si>
     <t>Avinda Sandinawati</t>
   </si>
   <si>
     <t>CCUSER4575</t>
   </si>
   <si>
-    <t>CCPASS1497</t>
-  </si>
-  <si>
     <t>Imam Fadhillah</t>
   </si>
   <si>
     <t>CCUSER5903</t>
   </si>
   <si>
-    <t>CCPASS1574</t>
-  </si>
-  <si>
     <t>Muhamad Hasan</t>
   </si>
   <si>
     <t>CCUSER2867</t>
   </si>
   <si>
-    <t>CCPASS1859</t>
-  </si>
-  <si>
     <t>Rian Rahmat Ranjani</t>
   </si>
   <si>
     <t>CCUSER7594</t>
   </si>
   <si>
-    <t>CCPASS8816</t>
-  </si>
-  <si>
     <t>Cyber 06</t>
   </si>
   <si>
     <t>CCUSER9561</t>
   </si>
   <si>
-    <t>CCPASS4084</t>
-  </si>
-  <si>
     <t>Enok Indriyani</t>
   </si>
   <si>
     <t>CCUSER8762</t>
   </si>
   <si>
-    <t>CCPASS6453</t>
-  </si>
-  <si>
     <t>Febri Daryanto</t>
   </si>
   <si>
     <t>CCUSER1754</t>
   </si>
   <si>
-    <t>CCPASS1166</t>
-  </si>
-  <si>
     <t>Fenti Efendi</t>
   </si>
   <si>
@@ -792,81 +564,54 @@
     <t>CCUSER8887</t>
   </si>
   <si>
-    <t>CCPASS2694</t>
-  </si>
-  <si>
     <t>Leni Apriliani</t>
   </si>
   <si>
     <t>CCUSER1172</t>
   </si>
   <si>
-    <t>CCPASS8571</t>
-  </si>
-  <si>
     <t>Lubna Lugina Fasha</t>
   </si>
   <si>
     <t>CCUSER4414</t>
   </si>
   <si>
-    <t>CCPASS3736</t>
-  </si>
-  <si>
     <t>M.Firman Andika</t>
   </si>
   <si>
     <t>CCUSER6657</t>
   </si>
   <si>
-    <t>CCPASS2474</t>
-  </si>
-  <si>
     <t>Muhammad Hasan</t>
   </si>
   <si>
     <t>CCUSER9379</t>
   </si>
   <si>
-    <t>CCPASS3590</t>
-  </si>
-  <si>
     <t>Permata Anisa A</t>
   </si>
   <si>
     <t>CCUSER6191</t>
   </si>
   <si>
-    <t>CCPASS3427</t>
-  </si>
-  <si>
     <t>Rian Rahmat</t>
   </si>
   <si>
     <t>CCUSER1453</t>
   </si>
   <si>
-    <t>CCPASS7885</t>
-  </si>
-  <si>
     <t>Septia Maelani</t>
   </si>
   <si>
     <t>CCUSER6672</t>
   </si>
   <si>
-    <t>CCPASS1723</t>
-  </si>
-  <si>
     <t>Sisti Dyah Restu C</t>
   </si>
   <si>
     <t>CCUSER3510</t>
   </si>
   <si>
-    <t>CCPASS4536</t>
-  </si>
-  <si>
     <t>Alvian Nicholas R</t>
   </si>
   <si>
@@ -876,81 +621,54 @@
     <t>CCUSER7275</t>
   </si>
   <si>
-    <t>CCPASS9069</t>
-  </si>
-  <si>
     <t>Muhammad Bagas Suseno</t>
   </si>
   <si>
     <t>CCUSER8746</t>
   </si>
   <si>
-    <t>CCPASS9476</t>
-  </si>
-  <si>
     <t>Rosmiati</t>
   </si>
   <si>
     <t>CCUSER6700</t>
   </si>
   <si>
-    <t>CCPASS1134</t>
-  </si>
-  <si>
     <t>Siti Marwah</t>
   </si>
   <si>
     <t>CCUSER4836</t>
   </si>
   <si>
-    <t>CCPASS2675</t>
-  </si>
-  <si>
     <t>Nurkholifah</t>
   </si>
   <si>
     <t>CCUSER2400</t>
   </si>
   <si>
-    <t>CCPASS8428</t>
-  </si>
-  <si>
     <t>Nurlaela</t>
   </si>
   <si>
     <t>CCUSER5313</t>
   </si>
   <si>
-    <t>CCPASS1595</t>
-  </si>
-  <si>
     <t>Elok Kurniasi</t>
   </si>
   <si>
     <t>CCUSER8278</t>
   </si>
   <si>
-    <t>CCPASS5740</t>
-  </si>
-  <si>
     <t>Abdul Rahman Haqim</t>
   </si>
   <si>
     <t>CCUSER1058</t>
   </si>
   <si>
-    <t>CCPASS4023</t>
-  </si>
-  <si>
     <t>Descatyana</t>
   </si>
   <si>
     <t>CCUSER8919</t>
   </si>
   <si>
-    <t>CCPASS5971</t>
-  </si>
-  <si>
     <t>Agung Pujianto</t>
   </si>
   <si>
@@ -960,198 +678,132 @@
     <t>CCUSER5736</t>
   </si>
   <si>
-    <t>CCPASS4114</t>
-  </si>
-  <si>
     <t>Aldian Oktaviana</t>
   </si>
   <si>
     <t>CCUSER5448</t>
   </si>
   <si>
-    <t>CCPASS3543</t>
-  </si>
-  <si>
     <t>Ardan Hidayat</t>
   </si>
   <si>
     <t>CCUSER1933</t>
   </si>
   <si>
-    <t>CCPASS3409</t>
-  </si>
-  <si>
     <t>Anggi</t>
   </si>
   <si>
     <t>CCUSER6446</t>
   </si>
   <si>
-    <t>CCPASS3730</t>
-  </si>
-  <si>
     <t>Bela</t>
   </si>
   <si>
     <t>CCUSER1449</t>
   </si>
   <si>
-    <t>CCPASS5788</t>
-  </si>
-  <si>
     <t>Duwi Suryani</t>
   </si>
   <si>
     <t>CCUSER3230</t>
   </si>
   <si>
-    <t>CCPASS4067</t>
-  </si>
-  <si>
     <t>Fadli Nur Ramdani</t>
   </si>
   <si>
     <t>CCUSER6827</t>
   </si>
   <si>
-    <t>CCPASS2558</t>
-  </si>
-  <si>
     <t>Fariz Azwar Syah</t>
   </si>
   <si>
     <t>CCUSER6898</t>
   </si>
   <si>
-    <t>CCPASS3260</t>
-  </si>
-  <si>
     <t>Fitria</t>
   </si>
   <si>
     <t>CCUSER1640</t>
   </si>
   <si>
-    <t>CCPASS7750</t>
-  </si>
-  <si>
     <t>Hesti Fauzi</t>
   </si>
   <si>
     <t>CCUSER3030</t>
   </si>
   <si>
-    <t>CCPASS1493</t>
-  </si>
-  <si>
     <t>Mahfur Diky Gunawan</t>
   </si>
   <si>
     <t>CCUSER8505</t>
   </si>
   <si>
-    <t>CCPASS1202</t>
-  </si>
-  <si>
     <t>Maulana Irvansyah</t>
   </si>
   <si>
     <t>CCUSER6271</t>
   </si>
   <si>
-    <t>CCPASS5406</t>
-  </si>
-  <si>
     <t>Miftah Dwi</t>
   </si>
   <si>
     <t>CCUSER4412</t>
   </si>
   <si>
-    <t>CCPASS1655</t>
-  </si>
-  <si>
     <t>Muhyi Rifani</t>
   </si>
   <si>
     <t>CCUSER9734</t>
   </si>
   <si>
-    <t>CCPASS2228</t>
-  </si>
-  <si>
     <t>M.Dio</t>
   </si>
   <si>
     <t>CCUSER5411</t>
   </si>
   <si>
-    <t>CCPASS6411</t>
-  </si>
-  <si>
     <t>Noviah Anggraeni</t>
   </si>
   <si>
     <t>CCUSER5891</t>
   </si>
   <si>
-    <t>CCPASS8369</t>
-  </si>
-  <si>
     <t>Priska</t>
   </si>
   <si>
     <t>CCUSER3614</t>
   </si>
   <si>
-    <t>CCPASS9561</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rani </t>
   </si>
   <si>
     <t>CCUSER6575</t>
   </si>
   <si>
-    <t>CCPASS3865</t>
-  </si>
-  <si>
     <t>Rira Sinta</t>
   </si>
   <si>
     <t>CCUSER1492</t>
   </si>
   <si>
-    <t>CCPASS7066</t>
-  </si>
-  <si>
     <t>Sifa Fauziyah</t>
   </si>
   <si>
     <t>CCUSER2699</t>
   </si>
   <si>
-    <t>CCPASS1178</t>
-  </si>
-  <si>
     <t>Siti Anisa Faturahman</t>
   </si>
   <si>
     <t>CCUSER3785</t>
   </si>
   <si>
-    <t>CCPASS1914</t>
-  </si>
-  <si>
     <t>Yoga Bachtiar</t>
   </si>
   <si>
     <t>CCUSER2931</t>
   </si>
   <si>
-    <t>CCPASS4650</t>
-  </si>
-  <si>
     <t>Astrid Syamsudin</t>
   </si>
   <si>
@@ -1161,144 +813,96 @@
     <t>CCUSER2556</t>
   </si>
   <si>
-    <t>CCPASS6679</t>
-  </si>
-  <si>
     <t>Eri Irawati</t>
   </si>
   <si>
     <t>CCUSER6389</t>
   </si>
   <si>
-    <t>CCPASS8911</t>
-  </si>
-  <si>
     <t>Nada Nadhifa</t>
   </si>
   <si>
     <t>CCUSER3382</t>
   </si>
   <si>
-    <t>CCPASS5182</t>
-  </si>
-  <si>
     <t>Rachma Kinanti A</t>
   </si>
   <si>
     <t>CCUSER9716</t>
   </si>
   <si>
-    <t>CCPASS2568</t>
-  </si>
-  <si>
     <t>Aditya Nur Rajabi</t>
   </si>
   <si>
     <t>CCUSER8453</t>
   </si>
   <si>
-    <t>CCPASS1157</t>
-  </si>
-  <si>
     <t>Arpan Maulana</t>
   </si>
   <si>
     <t>CCUSER9329</t>
   </si>
   <si>
-    <t>CCPASS7248</t>
-  </si>
-  <si>
     <t>Opan Pahmi Soepandi</t>
   </si>
   <si>
     <t>CCUSER9059</t>
   </si>
   <si>
-    <t>CCPASS3745</t>
-  </si>
-  <si>
     <t>Nurjannah</t>
   </si>
   <si>
     <t>CCUSER1671</t>
   </si>
   <si>
-    <t>CCPASS2461</t>
-  </si>
-  <si>
     <t>Yunita Milenia</t>
   </si>
   <si>
     <t>CCUSER6738</t>
   </si>
   <si>
-    <t>CCPASS3787</t>
-  </si>
-  <si>
     <t>Ira Oktaviani</t>
   </si>
   <si>
     <t>CCUSER1843</t>
   </si>
   <si>
-    <t>CCPASS9034</t>
-  </si>
-  <si>
     <t>Kurinawan Eka Prasetya</t>
   </si>
   <si>
     <t>CCUSER4719</t>
   </si>
   <si>
-    <t>CCPASS9743</t>
-  </si>
-  <si>
     <t>Febriansyah</t>
   </si>
   <si>
     <t>CCUSER2879</t>
   </si>
   <si>
-    <t>CCPASS5874</t>
-  </si>
-  <si>
     <t>David Kurnia Wijaya</t>
   </si>
   <si>
     <t>CCUSER3501</t>
   </si>
   <si>
-    <t>CCPASS7068</t>
-  </si>
-  <si>
     <t>Ragil Syahriyal</t>
   </si>
   <si>
     <t>CCUSER6876</t>
   </si>
   <si>
-    <t>CCPASS2940</t>
-  </si>
-  <si>
     <t>Ftonah Fery Dwi Setiaji</t>
   </si>
   <si>
     <t>CCUSER8657</t>
   </si>
   <si>
-    <t>CCPASS7541</t>
-  </si>
-  <si>
     <t>Syamsuddin</t>
   </si>
   <si>
     <t>CCUSER9854</t>
   </si>
   <si>
-    <t>CCPASS5546</t>
-  </si>
-  <si>
     <t>Rio Adnan Firdaus</t>
   </si>
   <si>
@@ -1308,108 +912,72 @@
     <t>CCUSER4998</t>
   </si>
   <si>
-    <t>CCPASS1102</t>
-  </si>
-  <si>
     <t>Riky Nur Fistiano</t>
   </si>
   <si>
     <t>CCUSER4668</t>
   </si>
   <si>
-    <t>CCPASS5514</t>
-  </si>
-  <si>
     <t>Dini Hartini</t>
   </si>
   <si>
     <t>CCUSER4869</t>
   </si>
   <si>
-    <t>CCPASS5484</t>
-  </si>
-  <si>
     <t>Oky Firlana</t>
   </si>
   <si>
     <t>CCUSER5713</t>
   </si>
   <si>
-    <t>CCPASS7691</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alif Firjatullah </t>
   </si>
   <si>
     <t>CCUSER2159</t>
   </si>
   <si>
-    <t>CCPASS7341</t>
-  </si>
-  <si>
     <t>Steven Adew</t>
   </si>
   <si>
     <t>CCUSER9592</t>
   </si>
   <si>
-    <t>CCPASS3438</t>
-  </si>
-  <si>
     <t xml:space="preserve">Risdawati </t>
   </si>
   <si>
     <t>CCUSER9824</t>
   </si>
   <si>
-    <t>CCPASS3231</t>
-  </si>
-  <si>
     <t>Fathurachman Ali</t>
   </si>
   <si>
     <t>CCUSER6106</t>
   </si>
   <si>
-    <t>CCPASS7907</t>
-  </si>
-  <si>
     <t>Erlangga Julianto</t>
   </si>
   <si>
     <t>CCUSER4677</t>
   </si>
   <si>
-    <t>CCPASS8507</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ridwan Ibnu kholid </t>
   </si>
   <si>
     <t>CCUSER6292</t>
   </si>
   <si>
-    <t>CCPASS7955</t>
-  </si>
-  <si>
     <t xml:space="preserve">Siti Alfiah </t>
   </si>
   <si>
     <t>CCUSER9899</t>
   </si>
   <si>
-    <t>CCPASS5503</t>
-  </si>
-  <si>
     <t>Siti Rahma Fadillah</t>
   </si>
   <si>
     <t>CCUSER3135</t>
   </si>
   <si>
-    <t>CCPASS3206</t>
-  </si>
-  <si>
     <t>Arnada Chika Chandra</t>
   </si>
   <si>
@@ -1419,36 +987,24 @@
     <t>CCUSER8758</t>
   </si>
   <si>
-    <t>CCPASS9944</t>
-  </si>
-  <si>
     <t>Deni Ramadhan</t>
   </si>
   <si>
     <t>CCUSER1374</t>
   </si>
   <si>
-    <t>CCPASS6855</t>
-  </si>
-  <si>
     <t>Izha Ikhfany</t>
   </si>
   <si>
     <t>CCUSER7232</t>
   </si>
   <si>
-    <t>CCPASS7994</t>
-  </si>
-  <si>
     <t>Ainur Rachman</t>
   </si>
   <si>
     <t>CCUSER9065</t>
   </si>
   <si>
-    <t>CCPASS1561</t>
-  </si>
-  <si>
     <t>Sahrul Mubarok</t>
   </si>
   <si>
@@ -1461,111 +1017,72 @@
     <t>CCUSER1645</t>
   </si>
   <si>
-    <t>CCPASS6229</t>
-  </si>
-  <si>
     <t>Rian Eko Prasetyo</t>
   </si>
   <si>
-    <t>CCPASS6300</t>
-  </si>
-  <si>
     <t>Andika Risky Syaputra</t>
   </si>
   <si>
     <t>CCUSER4107</t>
   </si>
   <si>
-    <t>CCPASS4336</t>
-  </si>
-  <si>
     <t>Nur Anisa Najwa</t>
   </si>
   <si>
-    <t>CCPASS2199</t>
-  </si>
-  <si>
     <t>Ari Wijaya</t>
   </si>
   <si>
     <t>CCUSER5082</t>
   </si>
   <si>
-    <t>CCPASS7414</t>
-  </si>
-  <si>
     <t xml:space="preserve">Linda Septiana </t>
   </si>
   <si>
     <t>CCUSER7396</t>
   </si>
   <si>
-    <t>CCPASS6544</t>
-  </si>
-  <si>
     <t>Akhmal Nur Aziz</t>
   </si>
   <si>
     <t>CCUSER7625</t>
   </si>
   <si>
-    <t>CCPASS6235</t>
-  </si>
-  <si>
     <t>Muhammad Akmal Ghufron</t>
   </si>
   <si>
     <t>CCUSER1311</t>
   </si>
   <si>
-    <t>CCPASS3008</t>
-  </si>
-  <si>
     <t>Maryani Jovana</t>
   </si>
   <si>
     <t>CCUSER5426</t>
   </si>
   <si>
-    <t>CCPASS9720</t>
-  </si>
-  <si>
     <t>Dandi Rohiman</t>
   </si>
   <si>
     <t>CCUSER5831</t>
   </si>
   <si>
-    <t>CCPASS8122</t>
-  </si>
-  <si>
     <t>Muhammad Ardian Muslich</t>
   </si>
   <si>
     <t>CCUSER9860</t>
   </si>
   <si>
-    <t>CCPASS8523</t>
-  </si>
-  <si>
     <t>Achmad Ikhwan Ramadhan Siregar</t>
   </si>
   <si>
     <t>CCUSER9176</t>
   </si>
   <si>
-    <t>CCPASS2316</t>
-  </si>
-  <si>
     <t>Aditya Duta Firmansyah</t>
   </si>
   <si>
     <t>CCUSER9756</t>
   </si>
   <si>
-    <t>CCPASS6301</t>
-  </si>
-  <si>
     <t>Akmal Amrulloh</t>
   </si>
   <si>
@@ -1575,261 +1092,174 @@
     <t>CCUSER8006</t>
   </si>
   <si>
-    <t>CCPASS9260</t>
-  </si>
-  <si>
     <t xml:space="preserve">Al Falah </t>
   </si>
   <si>
     <t>CCUSER3732</t>
   </si>
   <si>
-    <t>CCPASS7481</t>
-  </si>
-  <si>
     <t>Alvi Setiawan</t>
   </si>
   <si>
     <t>CCUSER4514</t>
   </si>
   <si>
-    <t>CCPASS1997</t>
-  </si>
-  <si>
     <t>Amelia Rahma</t>
   </si>
   <si>
     <t>CCUSER2798</t>
   </si>
   <si>
-    <t>CCPASS3481</t>
-  </si>
-  <si>
     <t>Cut Salma Azahara</t>
   </si>
   <si>
     <t>CCUSER9169</t>
   </si>
   <si>
-    <t>CCPASS3512</t>
-  </si>
-  <si>
     <t>Andini Nur Fauziah</t>
   </si>
   <si>
     <t>CCUSER3641</t>
   </si>
   <si>
-    <t>CCPASS3650</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dea Puspita </t>
   </si>
   <si>
     <t>CCUSER4131</t>
   </si>
   <si>
-    <t>CCPASS9955</t>
-  </si>
-  <si>
     <t>Devi Yulianti</t>
   </si>
   <si>
     <t>CCUSER9463</t>
   </si>
   <si>
-    <t>CCPASS6776</t>
-  </si>
-  <si>
     <t>Dewi Ambarsari</t>
   </si>
   <si>
     <t>CCUSER7666</t>
   </si>
   <si>
-    <t>CCPASS4759</t>
-  </si>
-  <si>
     <t>Dimas Raditya T</t>
   </si>
   <si>
     <t>CCUSER1201</t>
   </si>
   <si>
-    <t>CCPASS3838</t>
-  </si>
-  <si>
     <t>Dzul Arsi Majid Anwar</t>
   </si>
   <si>
     <t>CCUSER3026</t>
   </si>
   <si>
-    <t>CCPASS9744</t>
-  </si>
-  <si>
     <t>Elsa Damayanti</t>
   </si>
   <si>
     <t>CCUSER5993</t>
   </si>
   <si>
-    <t>CCPASS8691</t>
-  </si>
-  <si>
     <t>Faradila Amelia</t>
   </si>
   <si>
     <t>CCUSER1969</t>
   </si>
   <si>
-    <t>CCPASS2265</t>
-  </si>
-  <si>
     <t>Fillah AL Fazri</t>
   </si>
   <si>
     <t>CCUSER6639</t>
   </si>
   <si>
-    <t>CCPASS4809</t>
-  </si>
-  <si>
     <t>Gentra Rizky Al Fazri</t>
   </si>
   <si>
     <t>CCUSER2416</t>
   </si>
   <si>
-    <t>CCPASS5743</t>
-  </si>
-  <si>
     <t>Irnaini</t>
   </si>
   <si>
     <t>CCUSER9964</t>
   </si>
   <si>
-    <t>CCPASS1009</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kiki Nur Fadilah </t>
   </si>
   <si>
     <t>CCUSER8336</t>
   </si>
   <si>
-    <t>CCPASS8095</t>
-  </si>
-  <si>
     <t>Lintang Adjie N</t>
   </si>
   <si>
     <t>CCUSER3236</t>
   </si>
   <si>
-    <t>CCPASS2116</t>
-  </si>
-  <si>
     <t>M Rama Aditya A</t>
   </si>
   <si>
     <t>CCUSER4952</t>
   </si>
   <si>
-    <t>CCPASS3551</t>
-  </si>
-  <si>
     <t>Mustofa Kamil</t>
   </si>
   <si>
     <t>CCUSER5671</t>
   </si>
   <si>
-    <t>CCPASS9235</t>
-  </si>
-  <si>
     <t>Nur Khofifah</t>
   </si>
   <si>
     <t>CCUSER8975</t>
   </si>
   <si>
-    <t>CCPASS9859</t>
-  </si>
-  <si>
     <t>Nur Mahmudin</t>
   </si>
   <si>
     <t>CCUSER9817</t>
   </si>
   <si>
-    <t>CCPASS2905</t>
-  </si>
-  <si>
     <t>Putri Wulandari</t>
   </si>
   <si>
     <t>CCUSER8910</t>
   </si>
   <si>
-    <t>CCPASS8356</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rafly Saputra </t>
   </si>
   <si>
     <t>CCUSER7448</t>
   </si>
   <si>
-    <t>CCPASS1857</t>
-  </si>
-  <si>
     <t>Siska Zuniyeta</t>
   </si>
   <si>
     <t>CCUSER6578</t>
   </si>
   <si>
-    <t>CCPASS5085</t>
-  </si>
-  <si>
     <t>Susy Hamidah</t>
   </si>
   <si>
     <t>CCUSER1029</t>
   </si>
   <si>
-    <t>CCPASS3675</t>
-  </si>
-  <si>
     <t>Syalu Widya A</t>
   </si>
   <si>
     <t>CCUSER4733</t>
   </si>
   <si>
-    <t>CCPASS7809</t>
-  </si>
-  <si>
     <t>Syaripah Aini</t>
   </si>
   <si>
     <t>CCUSER2026</t>
   </si>
   <si>
-    <t>CCPASS3712</t>
-  </si>
-  <si>
     <t>Tasya Nur Rahayu</t>
   </si>
   <si>
     <t>CCUSER3493</t>
   </si>
   <si>
-    <t>CCPASS5082</t>
-  </si>
-  <si>
     <t>Irfan Firmansyah</t>
   </si>
   <si>
@@ -1845,144 +1275,96 @@
     <t>CCUSER9482</t>
   </si>
   <si>
-    <t>CCPASS4225</t>
-  </si>
-  <si>
     <t>Reni Febriani</t>
   </si>
   <si>
     <t>CCUSER8139</t>
   </si>
   <si>
-    <t>CCPASS5968</t>
-  </si>
-  <si>
     <t>Fatimah</t>
   </si>
   <si>
     <t>CCUSER8806</t>
   </si>
   <si>
-    <t>CCPASS9871</t>
-  </si>
-  <si>
     <t>Iqbal Dwi A</t>
   </si>
   <si>
     <t>CCUSER2661</t>
   </si>
   <si>
-    <t>CCPASS9851</t>
-  </si>
-  <si>
     <t>Mawar Adila</t>
   </si>
   <si>
     <t>CCUSER9131</t>
   </si>
   <si>
-    <t>CCPASS2501</t>
-  </si>
-  <si>
     <t>Abeil Rafly Aldhani</t>
   </si>
   <si>
     <t>CCUSER8398</t>
   </si>
   <si>
-    <t>CCPASS2511</t>
-  </si>
-  <si>
     <t>Apriansyah</t>
   </si>
   <si>
     <t>CCUSER4658</t>
   </si>
   <si>
-    <t>CCPASS9916</t>
-  </si>
-  <si>
     <t>Idan Januwardana</t>
   </si>
   <si>
     <t>CCUSER3264</t>
   </si>
   <si>
-    <t>CCPASS9397</t>
-  </si>
-  <si>
     <t>Teguh Banyu Putra</t>
   </si>
   <si>
     <t>CCUSER98549</t>
   </si>
   <si>
-    <t>CCPASS2370</t>
-  </si>
-  <si>
     <t>Alfif Razeb</t>
   </si>
   <si>
     <t>CCUSER92941</t>
   </si>
   <si>
-    <t>CCPASS5521</t>
-  </si>
-  <si>
     <t>Aries Hidayatullah</t>
   </si>
   <si>
     <t>CCUSER32578</t>
   </si>
   <si>
-    <t>CCPASS5939</t>
-  </si>
-  <si>
     <t>Fahri Akbar</t>
   </si>
   <si>
     <t>CCUSER97242</t>
   </si>
   <si>
-    <t>CCPASS5654</t>
-  </si>
-  <si>
     <t>Fikri Abdul Muhammad</t>
   </si>
   <si>
     <t>CCUSER73957</t>
   </si>
   <si>
-    <t>CCPASS4382</t>
-  </si>
-  <si>
     <t>Indriana Sofyan</t>
   </si>
   <si>
     <t>CCUSER32575</t>
   </si>
   <si>
-    <t>CCPASS6566</t>
-  </si>
-  <si>
     <t>M Rifky Ridwan</t>
   </si>
   <si>
     <t>ASNUR12</t>
   </si>
   <si>
-    <t>CCPASS5331</t>
-  </si>
-  <si>
     <t>M. Asnur Ramdani</t>
   </si>
   <si>
     <t>CCUSER89167</t>
   </si>
   <si>
-    <t>CCPASS7367</t>
-  </si>
-  <si>
     <t>Erson Fairman Weryadi</t>
   </si>
   <si>
@@ -1992,45 +1374,30 @@
     <t>CCUSER15143</t>
   </si>
   <si>
-    <t>CCPASS6398</t>
-  </si>
-  <si>
     <t>Abiyu Sofyan</t>
   </si>
   <si>
     <t>CCUSER25567</t>
   </si>
   <si>
-    <t>CCPASS7535</t>
-  </si>
-  <si>
     <t>Maulana Ramadhan</t>
   </si>
   <si>
     <t>CCUSER71562</t>
   </si>
   <si>
-    <t>CCPASS2985</t>
-  </si>
-  <si>
     <t>Muhammad Rafli</t>
   </si>
   <si>
     <t>CCUSER68885</t>
   </si>
   <si>
-    <t>CCPASS5424</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puspa Indah Wardiana </t>
   </si>
   <si>
     <t>CCUSER93391</t>
   </si>
   <si>
-    <t>CCPASS8315</t>
-  </si>
-  <si>
     <t>Arya Kusuma Angkasa</t>
   </si>
   <si>
@@ -2038,6 +1405,633 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>CCPASS8958</t>
+  </si>
+  <si>
+    <t>CCPASS8474</t>
+  </si>
+  <si>
+    <t>CCPASS6536</t>
+  </si>
+  <si>
+    <t>CCPASS6634</t>
+  </si>
+  <si>
+    <t>CCPASS8939</t>
+  </si>
+  <si>
+    <t>CCPASS6600</t>
+  </si>
+  <si>
+    <t>CCPASS9636</t>
+  </si>
+  <si>
+    <t>CCPASS5268</t>
+  </si>
+  <si>
+    <t>CCPASS8814</t>
+  </si>
+  <si>
+    <t>CCPASS9528</t>
+  </si>
+  <si>
+    <t>CCPASS5785</t>
+  </si>
+  <si>
+    <t>CCPASS5929</t>
+  </si>
+  <si>
+    <t>CCPASS6892</t>
+  </si>
+  <si>
+    <t>CCPASS5508</t>
+  </si>
+  <si>
+    <t>CCPASS8856</t>
+  </si>
+  <si>
+    <t>CCPASS6268</t>
+  </si>
+  <si>
+    <t>CCPASS7340</t>
+  </si>
+  <si>
+    <t>CCPASS8347</t>
+  </si>
+  <si>
+    <t>CCPASS5581</t>
+  </si>
+  <si>
+    <t>CCPASS7908</t>
+  </si>
+  <si>
+    <t>CCPASS7277</t>
+  </si>
+  <si>
+    <t>CCPASS8105</t>
+  </si>
+  <si>
+    <t>CCPASS9403</t>
+  </si>
+  <si>
+    <t>CCPASS8410</t>
+  </si>
+  <si>
+    <t>CCPASS5550</t>
+  </si>
+  <si>
+    <t>CCPASS7092</t>
+  </si>
+  <si>
+    <t>CCPASS6437</t>
+  </si>
+  <si>
+    <t>CCPASS5390</t>
+  </si>
+  <si>
+    <t>CCPASS6245</t>
+  </si>
+  <si>
+    <t>CCPASS5692</t>
+  </si>
+  <si>
+    <t>CCPASS8579</t>
+  </si>
+  <si>
+    <t>CCPASS7823</t>
+  </si>
+  <si>
+    <t>CCPASS9999</t>
+  </si>
+  <si>
+    <t>CCPASS8850</t>
+  </si>
+  <si>
+    <t>CCPASS8083</t>
+  </si>
+  <si>
+    <t>CCPASS8157</t>
+  </si>
+  <si>
+    <t>CCPASS8848</t>
+  </si>
+  <si>
+    <t>CCPASS6733</t>
+  </si>
+  <si>
+    <t>CCPASS9249</t>
+  </si>
+  <si>
+    <t>CCPASS9030</t>
+  </si>
+  <si>
+    <t>CCPASS8117</t>
+  </si>
+  <si>
+    <t>CCPASS9988</t>
+  </si>
+  <si>
+    <t>CCPASS9823</t>
+  </si>
+  <si>
+    <t>CCPASS7699</t>
+  </si>
+  <si>
+    <t>CCPASS9783</t>
+  </si>
+  <si>
+    <t>CCPASS7847</t>
+  </si>
+  <si>
+    <t>CCPASS9404</t>
+  </si>
+  <si>
+    <t>CCPASS6427</t>
+  </si>
+  <si>
+    <t>CCPASS9108</t>
+  </si>
+  <si>
+    <t>CCPASS8260</t>
+  </si>
+  <si>
+    <t>CCPASS9786</t>
+  </si>
+  <si>
+    <t>CCPASS5681</t>
+  </si>
+  <si>
+    <t>CCPASS6782</t>
+  </si>
+  <si>
+    <t>CCPASS5202</t>
+  </si>
+  <si>
+    <t>CCPASS5229</t>
+  </si>
+  <si>
+    <t>CCPASS6414</t>
+  </si>
+  <si>
+    <t>CCPASS9821</t>
+  </si>
+  <si>
+    <t>CCPASS6244</t>
+  </si>
+  <si>
+    <t>CCPASS6286</t>
+  </si>
+  <si>
+    <t>CCPASS9359</t>
+  </si>
+  <si>
+    <t>CCPASS7214</t>
+  </si>
+  <si>
+    <t>CCPASS7585</t>
+  </si>
+  <si>
+    <t>CCPASS8986</t>
+  </si>
+  <si>
+    <t>CCPASS8357</t>
+  </si>
+  <si>
+    <t>CCPASS8636</t>
+  </si>
+  <si>
+    <t>CCPASS5995</t>
+  </si>
+  <si>
+    <t>CCPASS8677</t>
+  </si>
+  <si>
+    <t>CCPASS8699</t>
+  </si>
+  <si>
+    <t>CCPASS6748</t>
+  </si>
+  <si>
+    <t>CCPASS7709</t>
+  </si>
+  <si>
+    <t>CCPASS6328</t>
+  </si>
+  <si>
+    <t>CCPASS7480</t>
+  </si>
+  <si>
+    <t>CCPASS7266</t>
+  </si>
+  <si>
+    <t>CCPASS7147</t>
+  </si>
+  <si>
+    <t>CCPASS7657</t>
+  </si>
+  <si>
+    <t>CCPASS8863</t>
+  </si>
+  <si>
+    <t>CCPASS8465</t>
+  </si>
+  <si>
+    <t>CCPASS8522</t>
+  </si>
+  <si>
+    <t>CCPASS9345</t>
+  </si>
+  <si>
+    <t>CCPASS6849</t>
+  </si>
+  <si>
+    <t>CCPASS6936</t>
+  </si>
+  <si>
+    <t>CCPASS9075</t>
+  </si>
+  <si>
+    <t>CCPASS7979</t>
+  </si>
+  <si>
+    <t>CCPASS8649</t>
+  </si>
+  <si>
+    <t>CCPASS5098</t>
+  </si>
+  <si>
+    <t>CCPASS5350</t>
+  </si>
+  <si>
+    <t>CCPASS8233</t>
+  </si>
+  <si>
+    <t>CCPASS6423</t>
+  </si>
+  <si>
+    <t>CCPASS8910</t>
+  </si>
+  <si>
+    <t>CCPASS6448</t>
+  </si>
+  <si>
+    <t>CCPASS7593</t>
+  </si>
+  <si>
+    <t>CCPASS9736</t>
+  </si>
+  <si>
+    <t>CCPASS9321</t>
+  </si>
+  <si>
+    <t>CCPASS6180</t>
+  </si>
+  <si>
+    <t>CCPASS9351</t>
+  </si>
+  <si>
+    <t>CCPASS9997</t>
+  </si>
+  <si>
+    <t>CCPASS6702</t>
+  </si>
+  <si>
+    <t>CCPASS8794</t>
+  </si>
+  <si>
+    <t>CCPASS5782</t>
+  </si>
+  <si>
+    <t>CCPASS5222</t>
+  </si>
+  <si>
+    <t>CCPASS8393</t>
+  </si>
+  <si>
+    <t>CCPASS9695</t>
+  </si>
+  <si>
+    <t>CCPASS9326</t>
+  </si>
+  <si>
+    <t>CCPASS6965</t>
+  </si>
+  <si>
+    <t>CCPASS8344</t>
+  </si>
+  <si>
+    <t>CCPASS7817</t>
+  </si>
+  <si>
+    <t>CCPASS8045</t>
+  </si>
+  <si>
+    <t>CCPASS7280</t>
+  </si>
+  <si>
+    <t>CCPASS9295</t>
+  </si>
+  <si>
+    <t>CCPASS9915</t>
+  </si>
+  <si>
+    <t>CCPASS5454</t>
+  </si>
+  <si>
+    <t>CCPASS7641</t>
+  </si>
+  <si>
+    <t>CCPASS8319</t>
+  </si>
+  <si>
+    <t>CCPASS6610</t>
+  </si>
+  <si>
+    <t>CCPASS5434</t>
+  </si>
+  <si>
+    <t>CCPASS7327</t>
+  </si>
+  <si>
+    <t>CCPASS8136</t>
+  </si>
+  <si>
+    <t>CCPASS8563</t>
+  </si>
+  <si>
+    <t>CCPASS8036</t>
+  </si>
+  <si>
+    <t>CCPASS8009</t>
+  </si>
+  <si>
+    <t>CCPASS6507</t>
+  </si>
+  <si>
+    <t>CCPASS7631</t>
+  </si>
+  <si>
+    <t>CCPASS7988</t>
+  </si>
+  <si>
+    <t>CCPASS9901</t>
+  </si>
+  <si>
+    <t>CCPASS6560</t>
+  </si>
+  <si>
+    <t>CCPASS8871</t>
+  </si>
+  <si>
+    <t>CCPASS8397</t>
+  </si>
+  <si>
+    <t>CCPASS8903</t>
+  </si>
+  <si>
+    <t>CCPASS5637</t>
+  </si>
+  <si>
+    <t>CCPASS9514</t>
+  </si>
+  <si>
+    <t>CCPASS9697</t>
+  </si>
+  <si>
+    <t>CCPASS7030</t>
+  </si>
+  <si>
+    <t>CCPASS9040</t>
+  </si>
+  <si>
+    <t>CCPASS7152</t>
+  </si>
+  <si>
+    <t>CCPASS9622</t>
+  </si>
+  <si>
+    <t>CCPASS8141</t>
+  </si>
+  <si>
+    <t>CCPASS5742</t>
+  </si>
+  <si>
+    <t>CCPASS7858</t>
+  </si>
+  <si>
+    <t>CCPASS7197</t>
+  </si>
+  <si>
+    <t>CCPASS5623</t>
+  </si>
+  <si>
+    <t>CCPASS8744</t>
+  </si>
+  <si>
+    <t>CCPASS5051</t>
+  </si>
+  <si>
+    <t>CCPASS9578</t>
+  </si>
+  <si>
+    <t>CCPASS8128</t>
+  </si>
+  <si>
+    <t>CCPASS7560</t>
+  </si>
+  <si>
+    <t>CCPASS9237</t>
+  </si>
+  <si>
+    <t>CCPASS7161</t>
+  </si>
+  <si>
+    <t>CCPASS7685</t>
+  </si>
+  <si>
+    <t>CCPASS9971</t>
+  </si>
+  <si>
+    <t>CCPASS5414</t>
+  </si>
+  <si>
+    <t>CCPASS8302</t>
+  </si>
+  <si>
+    <t>CCPASS7122</t>
+  </si>
+  <si>
+    <t>CCPASS9087</t>
+  </si>
+  <si>
+    <t>CCPASS5359</t>
+  </si>
+  <si>
+    <t>CCPASS8634</t>
+  </si>
+  <si>
+    <t>CCPASS6637</t>
+  </si>
+  <si>
+    <t>CCPASS9473</t>
+  </si>
+  <si>
+    <t>CCPASS7407</t>
+  </si>
+  <si>
+    <t>CCPASS7559</t>
+  </si>
+  <si>
+    <t>CCPASS7510</t>
+  </si>
+  <si>
+    <t>CCPASS9557</t>
+  </si>
+  <si>
+    <t>CCPASS5753</t>
+  </si>
+  <si>
+    <t>CCPASS7393</t>
+  </si>
+  <si>
+    <t>CCPASS9633</t>
+  </si>
+  <si>
+    <t>CCPASS7873</t>
+  </si>
+  <si>
+    <t>CCPASS6627</t>
+  </si>
+  <si>
+    <t>CCPASS5512</t>
+  </si>
+  <si>
+    <t>CCPASS8581</t>
+  </si>
+  <si>
+    <t>CCPASS5809</t>
+  </si>
+  <si>
+    <t>CCPASS8079</t>
+  </si>
+  <si>
+    <t>CCPASS7186</t>
+  </si>
+  <si>
+    <t>CCPASS9166</t>
+  </si>
+  <si>
+    <t>CCPASS6833</t>
+  </si>
+  <si>
+    <t>CCPASS8822</t>
+  </si>
+  <si>
+    <t>CCPASS7478</t>
+  </si>
+  <si>
+    <t>CCPASS8051</t>
+  </si>
+  <si>
+    <t>CCPASS8520</t>
+  </si>
+  <si>
+    <t>CCPASS6556</t>
+  </si>
+  <si>
+    <t>CCPASS7125</t>
+  </si>
+  <si>
+    <t>CCPASS5305</t>
+  </si>
+  <si>
+    <t>CCPASS8034</t>
+  </si>
+  <si>
+    <t>CCPASS7527</t>
+  </si>
+  <si>
+    <t>CCPASS7321</t>
+  </si>
+  <si>
+    <t>CCPASS5301</t>
+  </si>
+  <si>
+    <t>CCPASS6747</t>
+  </si>
+  <si>
+    <t>CCPASS5652</t>
+  </si>
+  <si>
+    <t>CCPASS7806</t>
+  </si>
+  <si>
+    <t>CCPASS5030</t>
+  </si>
+  <si>
+    <t>CCPASS8941</t>
+  </si>
+  <si>
+    <t>CCPASS8043</t>
+  </si>
+  <si>
+    <t>CCPASS5095</t>
+  </si>
+  <si>
+    <t>CCPASS8586</t>
+  </si>
+  <si>
+    <t>CCPASS6289</t>
+  </si>
+  <si>
+    <t>CCPASS8314</t>
+  </si>
+  <si>
+    <t>CCPASS8968</t>
+  </si>
+  <si>
+    <t>CCPASS8809</t>
+  </si>
+  <si>
+    <t>CCPASS6372</t>
+  </si>
+  <si>
+    <t>CCPASS6878</t>
+  </si>
+  <si>
+    <t>CCPASS8504</t>
+  </si>
+  <si>
+    <t>CCPASS5738</t>
+  </si>
+  <si>
+    <t>CCPASS7915</t>
+  </si>
+  <si>
+    <t>CCPASS6039</t>
+  </si>
+  <si>
+    <t>CCPASS7169</t>
+  </si>
+  <si>
+    <t>CCPASS9268</t>
+  </si>
+  <si>
+    <t>CCPASS7076</t>
+  </si>
+  <si>
+    <t>CCPASS9866</t>
+  </si>
+  <si>
+    <t>CCPASS5636</t>
+  </si>
+  <si>
+    <t>CCPASS6693</t>
+  </si>
+  <si>
+    <t>CCPASS5558</t>
   </si>
 </sst>
 </file>
@@ -2391,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F695361-AB8F-44B9-A26B-C8F9830127A5}">
   <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,10 +2398,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>668</v>
+        <v>457</v>
       </c>
       <c r="B1" t="s">
-        <v>667</v>
+        <v>456</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2430,16 +2424,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,19 +2441,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,19 +2461,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>460</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2487,19 +2481,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,19 +2501,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>462</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2527,19 +2521,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2547,19 +2541,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>464</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
         <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2567,19 +2561,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2587,19 +2581,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>466</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2607,19 +2601,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>467</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,19 +2621,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>468</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
         <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2647,19 +2641,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2667,19 +2661,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>469</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2687,19 +2681,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>470</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2707,19 +2701,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>471</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,19 +2721,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>472</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2747,19 +2741,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>473</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,19 +2761,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>474</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2787,19 +2781,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2807,19 +2801,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>476</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2827,19 +2821,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>477</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,19 +2841,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2867,19 +2861,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>479</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2887,19 +2881,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,19 +2901,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2927,19 +2921,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>482</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,19 +2941,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>483</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2967,19 +2961,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>484</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2987,19 +2981,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>485</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3007,19 +3001,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>486</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3027,19 +3021,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>487</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3047,19 +3041,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>488</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,19 +3061,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,19 +3081,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>490</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,19 +3101,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>491</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3127,19 +3121,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>492</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3147,19 +3141,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>493</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3167,19 +3161,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>494</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3187,19 +3181,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>495</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3207,19 +3201,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>496</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3227,19 +3221,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>497</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3247,19 +3241,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>498</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3267,19 +3261,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,19 +3281,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,19 +3301,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>501</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3327,19 +3321,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>502</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3347,19 +3341,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>503</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3367,19 +3361,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>504</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3387,19 +3381,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,19 +3401,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>506</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,19 +3421,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>507</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,19 +3441,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3467,19 +3461,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>509</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3487,19 +3481,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>510</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3507,19 +3501,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>511</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3527,19 +3521,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>512</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3547,19 +3541,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>513</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,19 +3561,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>514</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3587,19 +3581,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>515</v>
       </c>
       <c r="D60" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3607,19 +3601,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>516</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3627,19 +3621,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>517</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,19 +3641,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>518</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3667,19 +3661,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>519</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3687,19 +3681,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>520</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,19 +3701,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>521</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3727,19 +3721,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>522</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,19 +3741,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>523</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3767,19 +3761,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>524</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3787,19 +3781,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>525</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3807,19 +3801,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3827,19 +3821,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>526</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3847,19 +3841,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>527</v>
       </c>
       <c r="D73" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3867,19 +3861,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>528</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3887,19 +3881,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>529</v>
       </c>
       <c r="D75" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3907,19 +3901,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="D76" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3927,19 +3921,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>531</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3947,19 +3941,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>532</v>
       </c>
       <c r="D78" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3967,19 +3961,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>533</v>
       </c>
       <c r="D79" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,19 +3981,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>222</v>
+        <v>534</v>
       </c>
       <c r="D80" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4007,19 +4001,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
-        <v>248</v>
+        <v>535</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4027,19 +4021,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>536</v>
       </c>
       <c r="D82" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4047,19 +4041,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>537</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4067,19 +4061,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>256</v>
+        <v>538</v>
       </c>
       <c r="D84" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4087,19 +4081,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>539</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4107,19 +4101,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
-        <v>262</v>
+        <v>540</v>
       </c>
       <c r="D86" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,19 +4121,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>541</v>
       </c>
       <c r="D87" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4147,19 +4141,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>268</v>
+        <v>542</v>
       </c>
       <c r="D88" t="s">
-        <v>269</v>
+        <v>187</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4167,19 +4161,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>271</v>
+        <v>543</v>
       </c>
       <c r="D89" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4187,19 +4181,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>274</v>
+        <v>544</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4207,19 +4201,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>277</v>
+        <v>545</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4227,19 +4221,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>546</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4247,19 +4241,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>284</v>
+        <v>547</v>
       </c>
       <c r="D93" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4267,19 +4261,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
-        <v>287</v>
+        <v>548</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F94" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4287,19 +4281,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>290</v>
+        <v>549</v>
       </c>
       <c r="D95" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4307,19 +4301,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>293</v>
+        <v>550</v>
       </c>
       <c r="D96" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F96" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4327,19 +4321,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
+        <v>551</v>
       </c>
       <c r="D97" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F97" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4347,19 +4341,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="C98" t="s">
-        <v>299</v>
+        <v>552</v>
       </c>
       <c r="D98" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4367,19 +4361,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="C99" t="s">
-        <v>302</v>
+        <v>553</v>
       </c>
       <c r="D99" t="s">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4387,19 +4381,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>554</v>
       </c>
       <c r="D100" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4407,19 +4401,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="C101" t="s">
-        <v>309</v>
+        <v>555</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="E101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4427,19 +4421,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="C102" t="s">
-        <v>312</v>
+        <v>556</v>
       </c>
       <c r="D102" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F102" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4447,19 +4441,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
-        <v>315</v>
+        <v>557</v>
       </c>
       <c r="D103" t="s">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F103" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4467,19 +4461,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>317</v>
+        <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>318</v>
+        <v>558</v>
       </c>
       <c r="D104" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F104" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4487,19 +4481,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="C105" t="s">
-        <v>321</v>
+        <v>559</v>
       </c>
       <c r="D105" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4507,19 +4501,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>560</v>
       </c>
       <c r="D106" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4527,19 +4521,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="C107" t="s">
-        <v>327</v>
+        <v>561</v>
       </c>
       <c r="D107" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4547,19 +4541,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="C108" t="s">
-        <v>330</v>
+        <v>562</v>
       </c>
       <c r="D108" t="s">
-        <v>331</v>
+        <v>229</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F108" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4567,19 +4561,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="C109" t="s">
-        <v>333</v>
+        <v>563</v>
       </c>
       <c r="D109" t="s">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4587,19 +4581,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="C110" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="D110" t="s">
-        <v>337</v>
+        <v>233</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4607,19 +4601,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>338</v>
+        <v>234</v>
       </c>
       <c r="C111" t="s">
-        <v>339</v>
+        <v>564</v>
       </c>
       <c r="D111" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4627,19 +4621,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="C112" t="s">
-        <v>342</v>
+        <v>565</v>
       </c>
       <c r="D112" t="s">
-        <v>343</v>
+        <v>237</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F112" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4647,19 +4641,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>344</v>
+        <v>238</v>
       </c>
       <c r="C113" t="s">
-        <v>345</v>
+        <v>566</v>
       </c>
       <c r="D113" t="s">
-        <v>346</v>
+        <v>239</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4667,19 +4661,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="C114" t="s">
-        <v>348</v>
+        <v>567</v>
       </c>
       <c r="D114" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F114" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4687,19 +4681,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="C115" t="s">
-        <v>351</v>
+        <v>568</v>
       </c>
       <c r="D115" t="s">
-        <v>352</v>
+        <v>243</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4707,19 +4701,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>353</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>569</v>
       </c>
       <c r="D116" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F116" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4727,19 +4721,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>357</v>
+        <v>570</v>
       </c>
       <c r="D117" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F117" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4747,19 +4741,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>359</v>
+        <v>248</v>
       </c>
       <c r="C118" t="s">
-        <v>360</v>
+        <v>571</v>
       </c>
       <c r="D118" t="s">
-        <v>361</v>
+        <v>249</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4767,19 +4761,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>362</v>
+        <v>250</v>
       </c>
       <c r="C119" t="s">
-        <v>363</v>
+        <v>572</v>
       </c>
       <c r="D119" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F119" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4787,19 +4781,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>365</v>
+        <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>366</v>
+        <v>573</v>
       </c>
       <c r="D120" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F120" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4807,19 +4801,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="C121" t="s">
-        <v>369</v>
+        <v>574</v>
       </c>
       <c r="D121" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F121" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4827,19 +4821,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>371</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>372</v>
+        <v>575</v>
       </c>
       <c r="D122" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F122" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4847,19 +4841,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>376</v>
+        <v>576</v>
       </c>
       <c r="D123" t="s">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F123" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4867,19 +4861,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>378</v>
+        <v>261</v>
       </c>
       <c r="C124" t="s">
-        <v>379</v>
+        <v>577</v>
       </c>
       <c r="D124" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4887,19 +4881,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="C125" t="s">
-        <v>382</v>
+        <v>578</v>
       </c>
       <c r="D125" t="s">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4907,19 +4901,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>385</v>
+        <v>579</v>
       </c>
       <c r="D126" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="E126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4927,19 +4921,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>387</v>
+        <v>267</v>
       </c>
       <c r="C127" t="s">
-        <v>388</v>
+        <v>580</v>
       </c>
       <c r="D127" t="s">
-        <v>389</v>
+        <v>268</v>
       </c>
       <c r="E127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F127" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4947,19 +4941,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>390</v>
+        <v>269</v>
       </c>
       <c r="C128" t="s">
-        <v>391</v>
+        <v>581</v>
       </c>
       <c r="D128" t="s">
-        <v>392</v>
+        <v>270</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4967,19 +4961,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>393</v>
+        <v>271</v>
       </c>
       <c r="C129" t="s">
-        <v>394</v>
+        <v>582</v>
       </c>
       <c r="D129" t="s">
-        <v>395</v>
+        <v>272</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F129" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4987,19 +4981,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>396</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s">
-        <v>397</v>
+        <v>583</v>
       </c>
       <c r="D130" t="s">
-        <v>398</v>
+        <v>274</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -5007,19 +5001,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>399</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>400</v>
+        <v>584</v>
       </c>
       <c r="D131" t="s">
-        <v>401</v>
+        <v>276</v>
       </c>
       <c r="E131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5027,19 +5021,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>402</v>
+        <v>277</v>
       </c>
       <c r="C132" t="s">
-        <v>403</v>
+        <v>585</v>
       </c>
       <c r="D132" t="s">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="E132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5047,19 +5041,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>406</v>
+        <v>586</v>
       </c>
       <c r="D133" t="s">
-        <v>407</v>
+        <v>280</v>
       </c>
       <c r="E133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F133" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -5067,19 +5061,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>408</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
-        <v>409</v>
+        <v>587</v>
       </c>
       <c r="D134" t="s">
-        <v>410</v>
+        <v>282</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F134" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5087,19 +5081,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>411</v>
+        <v>283</v>
       </c>
       <c r="C135" t="s">
-        <v>412</v>
+        <v>588</v>
       </c>
       <c r="D135" t="s">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="E135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5107,19 +5101,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>414</v>
+        <v>285</v>
       </c>
       <c r="C136" t="s">
-        <v>415</v>
+        <v>589</v>
       </c>
       <c r="D136" t="s">
-        <v>416</v>
+        <v>286</v>
       </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F136" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5127,19 +5121,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>417</v>
+        <v>287</v>
       </c>
       <c r="C137" t="s">
-        <v>418</v>
+        <v>590</v>
       </c>
       <c r="D137" t="s">
-        <v>419</v>
+        <v>288</v>
       </c>
       <c r="E137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5147,19 +5141,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>420</v>
+        <v>289</v>
       </c>
       <c r="C138" t="s">
-        <v>421</v>
+        <v>591</v>
       </c>
       <c r="D138" t="s">
-        <v>422</v>
+        <v>290</v>
       </c>
       <c r="E138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F138" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5167,19 +5161,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>424</v>
+        <v>292</v>
       </c>
       <c r="C139" t="s">
-        <v>425</v>
+        <v>592</v>
       </c>
       <c r="D139" t="s">
-        <v>426</v>
+        <v>293</v>
       </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F139" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5187,19 +5181,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>427</v>
+        <v>294</v>
       </c>
       <c r="C140" t="s">
-        <v>428</v>
+        <v>593</v>
       </c>
       <c r="D140" t="s">
-        <v>429</v>
+        <v>295</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5207,19 +5201,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>430</v>
+        <v>296</v>
       </c>
       <c r="C141" t="s">
-        <v>431</v>
+        <v>594</v>
       </c>
       <c r="D141" t="s">
-        <v>432</v>
+        <v>297</v>
       </c>
       <c r="E141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F141" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5227,19 +5221,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>433</v>
+        <v>298</v>
       </c>
       <c r="C142" t="s">
-        <v>434</v>
+        <v>595</v>
       </c>
       <c r="D142" t="s">
-        <v>435</v>
+        <v>299</v>
       </c>
       <c r="E142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F142" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5247,19 +5241,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="C143" t="s">
-        <v>437</v>
+        <v>596</v>
       </c>
       <c r="D143" t="s">
-        <v>438</v>
+        <v>301</v>
       </c>
       <c r="E143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5267,19 +5261,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>439</v>
+        <v>302</v>
       </c>
       <c r="C144" t="s">
-        <v>440</v>
+        <v>597</v>
       </c>
       <c r="D144" t="s">
-        <v>441</v>
+        <v>303</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F144" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5287,19 +5281,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>442</v>
+        <v>304</v>
       </c>
       <c r="C145" t="s">
-        <v>443</v>
+        <v>598</v>
       </c>
       <c r="D145" t="s">
-        <v>444</v>
+        <v>305</v>
       </c>
       <c r="E145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5307,19 +5301,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>445</v>
+        <v>306</v>
       </c>
       <c r="C146" t="s">
-        <v>446</v>
+        <v>599</v>
       </c>
       <c r="D146" t="s">
-        <v>447</v>
+        <v>307</v>
       </c>
       <c r="E146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F146" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5327,19 +5321,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>448</v>
+        <v>308</v>
       </c>
       <c r="C147" t="s">
-        <v>449</v>
+        <v>600</v>
       </c>
       <c r="D147" t="s">
-        <v>450</v>
+        <v>309</v>
       </c>
       <c r="E147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F147" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5347,19 +5341,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>451</v>
+        <v>310</v>
       </c>
       <c r="C148" t="s">
-        <v>452</v>
+        <v>601</v>
       </c>
       <c r="D148" t="s">
-        <v>453</v>
+        <v>311</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F148" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5367,19 +5361,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>454</v>
+        <v>312</v>
       </c>
       <c r="C149" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="D149" t="s">
-        <v>456</v>
+        <v>313</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,19 +5381,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>457</v>
+        <v>314</v>
       </c>
       <c r="C150" t="s">
-        <v>458</v>
+        <v>603</v>
       </c>
       <c r="D150" t="s">
-        <v>459</v>
+        <v>315</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F150" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5407,19 +5401,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>461</v>
+        <v>317</v>
       </c>
       <c r="C151" t="s">
-        <v>462</v>
+        <v>604</v>
       </c>
       <c r="D151" t="s">
-        <v>463</v>
+        <v>318</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5427,19 +5421,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>464</v>
+        <v>319</v>
       </c>
       <c r="C152" t="s">
-        <v>465</v>
+        <v>605</v>
       </c>
       <c r="D152" t="s">
-        <v>466</v>
+        <v>320</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F152" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5447,19 +5441,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="C153" t="s">
-        <v>468</v>
+        <v>606</v>
       </c>
       <c r="D153" t="s">
-        <v>469</v>
+        <v>322</v>
       </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F153" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5467,19 +5461,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>470</v>
+        <v>323</v>
       </c>
       <c r="C154" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="D154" t="s">
-        <v>472</v>
+        <v>324</v>
       </c>
       <c r="E154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F154" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5487,19 +5481,19 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>608</v>
       </c>
       <c r="D155" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5507,19 +5501,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>475</v>
+        <v>327</v>
       </c>
       <c r="C156" t="s">
-        <v>476</v>
+        <v>609</v>
       </c>
       <c r="D156" t="s">
-        <v>477</v>
+        <v>328</v>
       </c>
       <c r="E156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5527,19 +5521,19 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C157" t="s">
-        <v>478</v>
+        <v>610</v>
       </c>
       <c r="D157" t="s">
-        <v>479</v>
+        <v>329</v>
       </c>
       <c r="E157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F157" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5547,19 +5541,19 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="C158" t="s">
-        <v>481</v>
+        <v>611</v>
       </c>
       <c r="D158" t="s">
-        <v>482</v>
+        <v>331</v>
       </c>
       <c r="E158" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F158" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5567,19 +5561,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C159" t="s">
-        <v>483</v>
+        <v>612</v>
       </c>
       <c r="D159" t="s">
-        <v>484</v>
+        <v>332</v>
       </c>
       <c r="E159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F159" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5587,19 +5581,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>485</v>
+        <v>333</v>
       </c>
       <c r="C160" t="s">
-        <v>486</v>
+        <v>613</v>
       </c>
       <c r="D160" t="s">
-        <v>487</v>
+        <v>334</v>
       </c>
       <c r="E160" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F160" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5607,19 +5601,19 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>488</v>
+        <v>335</v>
       </c>
       <c r="C161" t="s">
-        <v>489</v>
+        <v>614</v>
       </c>
       <c r="D161" t="s">
-        <v>490</v>
+        <v>336</v>
       </c>
       <c r="E161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F161" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5627,19 +5621,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>491</v>
+        <v>337</v>
       </c>
       <c r="C162" t="s">
-        <v>492</v>
+        <v>615</v>
       </c>
       <c r="D162" t="s">
-        <v>493</v>
+        <v>338</v>
       </c>
       <c r="E162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5647,19 +5641,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>494</v>
+        <v>339</v>
       </c>
       <c r="C163" t="s">
-        <v>495</v>
+        <v>616</v>
       </c>
       <c r="D163" t="s">
-        <v>496</v>
+        <v>340</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F163" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5667,19 +5661,19 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>497</v>
+        <v>341</v>
       </c>
       <c r="C164" t="s">
-        <v>498</v>
+        <v>617</v>
       </c>
       <c r="D164" t="s">
-        <v>499</v>
+        <v>342</v>
       </c>
       <c r="E164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F164" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5687,19 +5681,19 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>500</v>
+        <v>343</v>
       </c>
       <c r="C165" t="s">
-        <v>501</v>
+        <v>618</v>
       </c>
       <c r="D165" t="s">
-        <v>502</v>
+        <v>344</v>
       </c>
       <c r="E165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F165" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5707,19 +5701,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>503</v>
+        <v>345</v>
       </c>
       <c r="C166" t="s">
-        <v>504</v>
+        <v>619</v>
       </c>
       <c r="D166" t="s">
-        <v>505</v>
+        <v>346</v>
       </c>
       <c r="E166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F166" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5727,19 +5721,19 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>506</v>
+        <v>347</v>
       </c>
       <c r="C167" t="s">
-        <v>507</v>
+        <v>620</v>
       </c>
       <c r="D167" t="s">
-        <v>508</v>
+        <v>348</v>
       </c>
       <c r="E167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F167" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5747,19 +5741,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>509</v>
+        <v>349</v>
       </c>
       <c r="C168" t="s">
-        <v>510</v>
+        <v>621</v>
       </c>
       <c r="D168" t="s">
-        <v>511</v>
+        <v>350</v>
       </c>
       <c r="E168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F168" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5767,19 +5761,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>513</v>
+        <v>352</v>
       </c>
       <c r="C169" t="s">
-        <v>514</v>
+        <v>622</v>
       </c>
       <c r="D169" t="s">
-        <v>515</v>
+        <v>353</v>
       </c>
       <c r="E169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F169" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5787,19 +5781,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>516</v>
+        <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>517</v>
+        <v>623</v>
       </c>
       <c r="D170" t="s">
-        <v>518</v>
+        <v>355</v>
       </c>
       <c r="E170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F170" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5807,19 +5801,19 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>519</v>
+        <v>356</v>
       </c>
       <c r="C171" t="s">
-        <v>520</v>
+        <v>624</v>
       </c>
       <c r="D171" t="s">
-        <v>521</v>
+        <v>357</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F171" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5827,19 +5821,19 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>522</v>
+        <v>358</v>
       </c>
       <c r="C172" t="s">
-        <v>523</v>
+        <v>625</v>
       </c>
       <c r="D172" t="s">
-        <v>524</v>
+        <v>359</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F172" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5847,19 +5841,19 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>525</v>
+        <v>360</v>
       </c>
       <c r="C173" t="s">
-        <v>526</v>
+        <v>626</v>
       </c>
       <c r="D173" t="s">
-        <v>527</v>
+        <v>361</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F173" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5867,19 +5861,19 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>528</v>
+        <v>362</v>
       </c>
       <c r="C174" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="D174" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F174" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5887,19 +5881,19 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>531</v>
+        <v>364</v>
       </c>
       <c r="C175" t="s">
-        <v>532</v>
+        <v>628</v>
       </c>
       <c r="D175" t="s">
-        <v>533</v>
+        <v>365</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F175" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5907,19 +5901,19 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>534</v>
+        <v>366</v>
       </c>
       <c r="C176" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="D176" t="s">
-        <v>536</v>
+        <v>367</v>
       </c>
       <c r="E176" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F176" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5927,19 +5921,19 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>537</v>
+        <v>368</v>
       </c>
       <c r="C177" t="s">
-        <v>538</v>
+        <v>630</v>
       </c>
       <c r="D177" t="s">
-        <v>539</v>
+        <v>369</v>
       </c>
       <c r="E177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F177" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5947,19 +5941,19 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>540</v>
+        <v>370</v>
       </c>
       <c r="C178" t="s">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="D178" t="s">
-        <v>542</v>
+        <v>371</v>
       </c>
       <c r="E178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F178" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5967,19 +5961,19 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>543</v>
+        <v>372</v>
       </c>
       <c r="C179" t="s">
-        <v>544</v>
+        <v>632</v>
       </c>
       <c r="D179" t="s">
-        <v>545</v>
+        <v>373</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F179" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5987,19 +5981,19 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>546</v>
+        <v>374</v>
       </c>
       <c r="C180" t="s">
-        <v>547</v>
+        <v>633</v>
       </c>
       <c r="D180" t="s">
-        <v>548</v>
+        <v>375</v>
       </c>
       <c r="E180" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F180" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6007,19 +6001,19 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>549</v>
+        <v>376</v>
       </c>
       <c r="C181" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="D181" t="s">
-        <v>551</v>
+        <v>377</v>
       </c>
       <c r="E181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F181" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6027,19 +6021,19 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>552</v>
+        <v>378</v>
       </c>
       <c r="C182" t="s">
-        <v>553</v>
+        <v>635</v>
       </c>
       <c r="D182" t="s">
-        <v>554</v>
+        <v>379</v>
       </c>
       <c r="E182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F182" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6047,19 +6041,19 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>555</v>
+        <v>380</v>
       </c>
       <c r="C183" t="s">
-        <v>556</v>
+        <v>636</v>
       </c>
       <c r="D183" t="s">
-        <v>557</v>
+        <v>381</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F183" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6067,19 +6061,19 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>558</v>
+        <v>382</v>
       </c>
       <c r="C184" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="D184" t="s">
-        <v>560</v>
+        <v>383</v>
       </c>
       <c r="E184" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F184" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6087,19 +6081,19 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>561</v>
+        <v>384</v>
       </c>
       <c r="C185" t="s">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="D185" t="s">
-        <v>563</v>
+        <v>385</v>
       </c>
       <c r="E185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F185" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6107,19 +6101,19 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>564</v>
+        <v>386</v>
       </c>
       <c r="C186" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="D186" t="s">
-        <v>566</v>
+        <v>387</v>
       </c>
       <c r="E186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F186" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6127,19 +6121,19 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>567</v>
+        <v>388</v>
       </c>
       <c r="C187" t="s">
-        <v>568</v>
+        <v>463</v>
       </c>
       <c r="D187" t="s">
-        <v>569</v>
+        <v>389</v>
       </c>
       <c r="E187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F187" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6147,19 +6141,19 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>570</v>
+        <v>390</v>
       </c>
       <c r="C188" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="D188" t="s">
-        <v>572</v>
+        <v>391</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F188" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6167,19 +6161,19 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>573</v>
+        <v>392</v>
       </c>
       <c r="C189" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="D189" t="s">
-        <v>575</v>
+        <v>393</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F189" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6187,19 +6181,19 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>576</v>
+        <v>394</v>
       </c>
       <c r="C190" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="D190" t="s">
-        <v>578</v>
+        <v>395</v>
       </c>
       <c r="E190" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F190" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6207,19 +6201,19 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>579</v>
+        <v>396</v>
       </c>
       <c r="C191" t="s">
-        <v>580</v>
+        <v>642</v>
       </c>
       <c r="D191" t="s">
-        <v>581</v>
+        <v>397</v>
       </c>
       <c r="E191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F191" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,19 +6221,19 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>582</v>
+        <v>398</v>
       </c>
       <c r="C192" t="s">
-        <v>583</v>
+        <v>643</v>
       </c>
       <c r="D192" t="s">
-        <v>584</v>
+        <v>399</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F192" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6247,19 +6241,19 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>585</v>
+        <v>400</v>
       </c>
       <c r="C193" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="D193" t="s">
-        <v>587</v>
+        <v>401</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F193" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6267,19 +6261,19 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>588</v>
+        <v>402</v>
       </c>
       <c r="C194" t="s">
-        <v>589</v>
+        <v>645</v>
       </c>
       <c r="D194" t="s">
-        <v>590</v>
+        <v>403</v>
       </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F194" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -6287,19 +6281,19 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>591</v>
+        <v>404</v>
       </c>
       <c r="C195" t="s">
-        <v>592</v>
+        <v>646</v>
       </c>
       <c r="D195" t="s">
-        <v>593</v>
+        <v>405</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F195" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6307,19 +6301,19 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>594</v>
+        <v>406</v>
       </c>
       <c r="C196" t="s">
-        <v>595</v>
+        <v>647</v>
       </c>
       <c r="D196" t="s">
-        <v>596</v>
+        <v>407</v>
       </c>
       <c r="E196" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F196" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6327,19 +6321,19 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>597</v>
+        <v>408</v>
       </c>
       <c r="C197" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="D197" t="s">
-        <v>599</v>
+        <v>409</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F197" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6347,19 +6341,19 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="C198" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="D198" t="s">
-        <v>602</v>
+        <v>412</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F198" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6367,19 +6361,19 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>603</v>
+        <v>413</v>
       </c>
       <c r="C199" t="s">
-        <v>604</v>
+        <v>649</v>
       </c>
       <c r="D199" t="s">
-        <v>605</v>
+        <v>414</v>
       </c>
       <c r="E199" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F199" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6387,19 +6381,19 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>606</v>
+        <v>415</v>
       </c>
       <c r="C200" t="s">
-        <v>607</v>
+        <v>650</v>
       </c>
       <c r="D200" t="s">
-        <v>608</v>
+        <v>416</v>
       </c>
       <c r="E200" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F200" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6407,19 +6401,19 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>609</v>
+        <v>417</v>
       </c>
       <c r="C201" t="s">
-        <v>610</v>
+        <v>651</v>
       </c>
       <c r="D201" t="s">
-        <v>611</v>
+        <v>418</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F201" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6427,19 +6421,19 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>612</v>
+        <v>419</v>
       </c>
       <c r="C202" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="D202" t="s">
-        <v>614</v>
+        <v>420</v>
       </c>
       <c r="E202" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F202" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6447,19 +6441,19 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>615</v>
+        <v>421</v>
       </c>
       <c r="C203" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="D203" t="s">
-        <v>617</v>
+        <v>422</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6467,19 +6461,19 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>618</v>
+        <v>423</v>
       </c>
       <c r="C204" t="s">
-        <v>619</v>
+        <v>654</v>
       </c>
       <c r="D204" t="s">
-        <v>620</v>
+        <v>424</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F204" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6487,19 +6481,19 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>621</v>
+        <v>425</v>
       </c>
       <c r="C205" t="s">
-        <v>622</v>
+        <v>411</v>
       </c>
       <c r="D205" t="s">
-        <v>623</v>
+        <v>426</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F205" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6507,19 +6501,19 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>624</v>
+        <v>427</v>
       </c>
       <c r="C206" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="D206" t="s">
-        <v>626</v>
+        <v>428</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F206" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6527,19 +6521,19 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>627</v>
+        <v>429</v>
       </c>
       <c r="C207" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="D207" t="s">
-        <v>629</v>
+        <v>430</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F207" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6547,19 +6541,19 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>630</v>
+        <v>431</v>
       </c>
       <c r="C208" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="D208" t="s">
-        <v>632</v>
+        <v>432</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F208" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6567,19 +6561,19 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>633</v>
+        <v>433</v>
       </c>
       <c r="C209" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="D209" t="s">
-        <v>635</v>
+        <v>434</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6587,19 +6581,19 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>636</v>
+        <v>435</v>
       </c>
       <c r="C210" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="D210" t="s">
-        <v>638</v>
+        <v>436</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F210" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6607,19 +6601,19 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>639</v>
+        <v>437</v>
       </c>
       <c r="C211" t="s">
-        <v>640</v>
+        <v>525</v>
       </c>
       <c r="D211" t="s">
-        <v>641</v>
+        <v>438</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F211" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6627,19 +6621,19 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>642</v>
+        <v>439</v>
       </c>
       <c r="C212" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="D212" t="s">
-        <v>644</v>
+        <v>440</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F212" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6647,19 +6641,19 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>645</v>
+        <v>441</v>
       </c>
       <c r="C213" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="D213" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F213" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6667,19 +6661,19 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
       <c r="C214" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="D214" t="s">
-        <v>650</v>
+        <v>444</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F214" t="s">
-        <v>651</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6687,19 +6681,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>652</v>
+        <v>446</v>
       </c>
       <c r="C215" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="D215" t="s">
-        <v>654</v>
+        <v>447</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F215" t="s">
-        <v>651</v>
+        <v>445</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6707,19 +6701,19 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>655</v>
+        <v>448</v>
       </c>
       <c r="C216" t="s">
-        <v>656</v>
+        <v>459</v>
       </c>
       <c r="D216" t="s">
-        <v>657</v>
+        <v>449</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F216" t="s">
-        <v>651</v>
+        <v>445</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6727,19 +6721,19 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>658</v>
+        <v>450</v>
       </c>
       <c r="C217" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D217" t="s">
-        <v>660</v>
+        <v>451</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F217" t="s">
-        <v>651</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6747,19 +6741,19 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>661</v>
+        <v>452</v>
       </c>
       <c r="C218" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D218" t="s">
-        <v>663</v>
+        <v>453</v>
       </c>
       <c r="E218" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F218" t="s">
-        <v>651</v>
+        <v>445</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6767,19 +6761,19 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>664</v>
+        <v>454</v>
       </c>
       <c r="C219" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D219" t="s">
-        <v>666</v>
+        <v>455</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F219" t="s">
-        <v>651</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
